--- a/Problem Sets/NewSet/DualObjective/results_dual.xlsx
+++ b/Problem Sets/NewSet/DualObjective/results_dual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izaides\PycharmProjects\Emulators\Problem Sets\NewSet\DualObjective\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izaides\Documents\PycharmProjects\Emulators\Problem Sets\NewSet\DualObjective\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="results_dual" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results_dual!$A$1:$N$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results_dual!$A$1:$O$81</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>file</t>
   </si>
@@ -304,13 +305,34 @@
   </si>
   <si>
     <t>m25j40d100p40_4.csv.out</t>
+  </si>
+  <si>
+    <t>cp_1800s_trans</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>CI 95</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Optimal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +466,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -787,8 +815,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1110,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="I55" workbookViewId="0">
+      <selection activeCell="P87" sqref="P87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1151,9 @@
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1166,6 +1197,9 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1210,11 +1244,11 @@
         <v>20022</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <f>FLOOR(M2/10000,1)*1000000 + MOD(M2,10000)</f>
+        <v>2000022</v>
       </c>
       <c r="O2">
-        <f>G2-J2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1258,11 +1292,11 @@
         <v>20020</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <f t="shared" ref="N3:N66" si="0">FLOOR(M3/10000,1)*1000000 + MOD(M3,10000)</f>
+        <v>2000020</v>
       </c>
       <c r="O3">
-        <f>G3-J3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1306,6 +1340,10 @@
         <v>30041</v>
       </c>
       <c r="N4">
+        <f t="shared" si="0"/>
+        <v>3000041</v>
+      </c>
+      <c r="O4">
         <v>1</v>
       </c>
     </row>
@@ -1350,6 +1388,10 @@
         <v>20016</v>
       </c>
       <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2000016</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
     </row>
@@ -1394,6 +1436,10 @@
         <v>30052</v>
       </c>
       <c r="N6">
+        <f t="shared" si="0"/>
+        <v>3000052</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
     </row>
@@ -1438,6 +1484,10 @@
         <v>30143</v>
       </c>
       <c r="N7">
+        <f t="shared" si="0"/>
+        <v>3000143</v>
+      </c>
+      <c r="O7">
         <v>1</v>
       </c>
     </row>
@@ -1482,6 +1532,10 @@
         <v>30088</v>
       </c>
       <c r="N8">
+        <f t="shared" si="0"/>
+        <v>3000088</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
     </row>
@@ -1526,6 +1580,10 @@
         <v>30070</v>
       </c>
       <c r="N9">
+        <f t="shared" si="0"/>
+        <v>3000070</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
     </row>
@@ -1570,6 +1628,10 @@
         <v>30124</v>
       </c>
       <c r="N10">
+        <f t="shared" si="0"/>
+        <v>3000124</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
     </row>
@@ -1614,6 +1676,10 @@
         <v>40118</v>
       </c>
       <c r="N11">
+        <f t="shared" si="0"/>
+        <v>4000118</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
     </row>
@@ -1658,6 +1724,10 @@
         <v>40116</v>
       </c>
       <c r="N12">
+        <f t="shared" si="0"/>
+        <v>4000116</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
     </row>
@@ -1702,6 +1772,10 @@
         <v>80184</v>
       </c>
       <c r="N13">
+        <f t="shared" si="0"/>
+        <v>8000184</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
@@ -1746,6 +1820,10 @@
         <v>70246</v>
       </c>
       <c r="N14">
+        <f t="shared" si="0"/>
+        <v>7000246</v>
+      </c>
+      <c r="O14">
         <v>0</v>
       </c>
     </row>
@@ -1790,6 +1868,10 @@
         <v>60178</v>
       </c>
       <c r="N15">
+        <f t="shared" si="0"/>
+        <v>6000178</v>
+      </c>
+      <c r="O15">
         <v>0</v>
       </c>
     </row>
@@ -1834,10 +1916,14 @@
         <v>50144</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5000144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1878,10 +1964,14 @@
         <v>70531</v>
       </c>
       <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>7000531</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1922,10 +2012,14 @@
         <v>30185</v>
       </c>
       <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3000185</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1966,10 +2060,14 @@
         <v>60414</v>
       </c>
       <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6000414</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2010,10 +2108,14 @@
         <v>40209</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4000209</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2054,10 +2156,14 @@
         <v>70486</v>
       </c>
       <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>7000486</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2098,10 +2204,14 @@
         <v>120520</v>
       </c>
       <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>12000520</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2142,10 +2252,14 @@
         <v>120447</v>
       </c>
       <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>12000447</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2186,10 +2300,14 @@
         <v>130549</v>
       </c>
       <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>13000549</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2230,10 +2348,14 @@
         <v>150749</v>
       </c>
       <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>15000749</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2274,10 +2396,14 @@
         <v>90346</v>
       </c>
       <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>9000346</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2318,10 +2444,14 @@
         <v>120991</v>
       </c>
       <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>12000991</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2362,10 +2492,14 @@
         <v>141204</v>
       </c>
       <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>14001204</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2406,10 +2540,14 @@
         <v>141258</v>
       </c>
       <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>14001258</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2450,10 +2588,14 @@
         <v>141471</v>
       </c>
       <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>14001471</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2494,10 +2636,14 @@
         <v>131237</v>
       </c>
       <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>13001237</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2538,10 +2684,14 @@
         <v>120495</v>
       </c>
       <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>12000495</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2582,10 +2732,14 @@
         <v>151017</v>
       </c>
       <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>15001017</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2626,10 +2780,14 @@
         <v>140816</v>
       </c>
       <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>14000816</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -2670,10 +2828,14 @@
         <v>150986</v>
       </c>
       <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>15000986</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2714,10 +2876,14 @@
         <v>151042</v>
       </c>
       <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>15001042</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2758,10 +2924,14 @@
         <v>162561</v>
       </c>
       <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>16002561</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -2802,10 +2972,14 @@
         <v>121229</v>
       </c>
       <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>12001229</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -2846,10 +3020,14 @@
         <v>162092</v>
       </c>
       <c r="N39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>16002092</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2890,10 +3068,14 @@
         <v>141618</v>
       </c>
       <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>14001618</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -2934,10 +3116,14 @@
         <v>152404</v>
       </c>
       <c r="N41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>15002404</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2978,10 +3164,14 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3022,10 +3212,14 @@
         <v>40034</v>
       </c>
       <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4000034</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -3066,10 +3260,14 @@
         <v>50070</v>
       </c>
       <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5000070</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -3110,10 +3308,14 @@
         <v>20008</v>
       </c>
       <c r="N45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2000008</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -3154,10 +3356,14 @@
         <v>20030</v>
       </c>
       <c r="N46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2000030</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -3198,10 +3404,14 @@
         <v>30087</v>
       </c>
       <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3000087</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -3242,10 +3452,14 @@
         <v>50179</v>
       </c>
       <c r="N48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5000179</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -3286,10 +3500,14 @@
         <v>20025</v>
       </c>
       <c r="N49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2000025</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -3330,10 +3548,14 @@
         <v>20049</v>
       </c>
       <c r="N50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2000049</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -3374,10 +3596,14 @@
         <v>30152</v>
       </c>
       <c r="N51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3000152</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -3418,10 +3644,14 @@
         <v>60216</v>
       </c>
       <c r="N52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6000216</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -3462,10 +3692,14 @@
         <v>40069</v>
       </c>
       <c r="N53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4000069</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -3506,10 +3740,14 @@
         <v>40118</v>
       </c>
       <c r="N54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4000118</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -3550,10 +3788,14 @@
         <v>60206</v>
       </c>
       <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6000206</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -3594,10 +3836,14 @@
         <v>30077</v>
       </c>
       <c r="N56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3000077</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -3638,10 +3884,14 @@
         <v>50215</v>
       </c>
       <c r="N57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5000215</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -3682,10 +3932,14 @@
         <v>50204</v>
       </c>
       <c r="N58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5000204</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -3726,10 +3980,14 @@
         <v>80340</v>
       </c>
       <c r="N59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>8000340</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -3770,10 +4028,14 @@
         <v>50338</v>
       </c>
       <c r="N60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5000338</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -3814,10 +4076,14 @@
         <v>40200</v>
       </c>
       <c r="N61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4000200</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -3858,10 +4124,14 @@
         <v>140829</v>
       </c>
       <c r="N62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>14000829</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -3902,10 +4172,14 @@
         <v>120513</v>
       </c>
       <c r="N63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>12000513</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -3946,10 +4220,14 @@
         <v>100397</v>
       </c>
       <c r="N64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>10000397</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -3990,10 +4268,14 @@
         <v>100452</v>
       </c>
       <c r="N65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>10000452</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -4034,10 +4316,14 @@
         <v>110451</v>
       </c>
       <c r="N66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>11000451</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4078,10 +4364,14 @@
         <v>152058</v>
       </c>
       <c r="N67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N67:N81" si="1">FLOOR(M67/10000,1)*1000000 + MOD(M67,10000)</f>
+        <v>15002058</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -4122,10 +4412,14 @@
         <v>121224</v>
       </c>
       <c r="N68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>12001224</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -4166,10 +4460,14 @@
         <v>141605</v>
       </c>
       <c r="N69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>14001605</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -4210,10 +4508,14 @@
         <v>141391</v>
       </c>
       <c r="N70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>14001391</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -4254,10 +4556,14 @@
         <v>120857</v>
       </c>
       <c r="N71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>12000857</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -4298,10 +4604,14 @@
         <v>100582</v>
       </c>
       <c r="N72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>10000582</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -4342,10 +4652,14 @@
         <v>120671</v>
       </c>
       <c r="N73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>12000671</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -4386,10 +4700,14 @@
         <v>150849</v>
       </c>
       <c r="N74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>15000849</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -4430,10 +4748,14 @@
         <v>120620</v>
       </c>
       <c r="N75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>12000620</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -4474,10 +4796,14 @@
         <v>120799</v>
       </c>
       <c r="N76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>12000799</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -4518,10 +4844,14 @@
         <v>182306</v>
       </c>
       <c r="N77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>18002306</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -4562,10 +4892,14 @@
         <v>151840</v>
       </c>
       <c r="N78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>15001840</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4606,10 +4940,14 @@
         <v>141721</v>
       </c>
       <c r="N79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>14001721</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4650,10 +4988,14 @@
         <v>131777</v>
       </c>
       <c r="N80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>13001777</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4694,21 +5036,311 @@
         <v>161914</v>
       </c>
       <c r="N81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>16001914</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>95</v>
+      </c>
       <c r="G85">
-        <f>AVERAGE(G2:G81)</f>
+        <f>SUBTOTAL(101,G2:G81)</f>
         <v>11990395.875</v>
       </c>
+      <c r="H85">
+        <f t="shared" ref="H85:O85" si="2">SUBTOTAL(101,H2:H81)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="2"/>
+        <v>1379.4853500092395</v>
+      </c>
       <c r="J85">
-        <f>AVERAGE(J2:J81)</f>
+        <f t="shared" si="2"/>
         <v>9063193.4625000004</v>
       </c>
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="2"/>
+        <v>1325.6658875075816</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="2"/>
+        <v>87648.65</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="2"/>
+        <v>8700648.6500000004</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86">
+        <f>SUBTOTAL(107,G2:G81)</f>
+        <v>11017551.709232084</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86:O86" si="3">SUBTOTAL(107,H2:H81)</f>
+        <v>0.43574467033059511</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>757.42806241991298</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>5492491.380363211</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="3"/>
+        <v>0.44933143021295002</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="3"/>
+        <v>780.97510063211712</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="3"/>
+        <v>50797.843559358029</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="3"/>
+        <v>5023052.9581373166</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="3"/>
+        <v>0.30189276325597658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87">
+        <f>_xlfn.CONFIDENCE.T(0.05,G86,G90)</f>
+        <v>2451836.028301646</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ref="H87:O87" si="4">_xlfn.CONFIDENCE.T(0.05,H86,H90)</f>
+        <v>9.6970226240167226E-2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="4"/>
+        <v>168.55735841309598</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="4"/>
+        <v>1222294.0819262448</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>9.9993811539932795E-2</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
+        <v>173.79749507613522</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="4"/>
+        <v>11304.506326437351</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="4"/>
+        <v>1117825.6785042698</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="4"/>
+        <v>6.7182943467767361E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <f>G86/SQRT(G90)</f>
+        <v>1231799.7283730968</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ref="H88:O88" si="5">H86/SQRT(H90)</f>
+        <v>4.8717735184622316E-2</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>84.683031781843965</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>614079.20461618959</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>5.0236781119167948E-2</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="5"/>
+        <v>87.315670687407632</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="5"/>
+        <v>5679.3715654562211</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="5"/>
+        <v>561594.3934488222</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="5"/>
+        <v>3.3752637027780717E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" s="1">
+        <f ca="1">MEDIAN(IF(SUBTOTAL(2,OFFSET(G2,ROW(G2:G81)-ROW(G2),0)),G2:G81))</f>
+        <v>8500424</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" ref="H89:O89" ca="1" si="6">MEDIAN(IF(SUBTOTAL(2,OFFSET(H2,ROW(H2:H81)-ROW(H2),0)),H2:H81))</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1807.5670000350001</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>9000359</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1800.0254998199998</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>85343</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>8500343</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90">
+        <f>SUBTOTAL(102,G2:G81)</f>
+        <v>80</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ref="H90:O90" si="7">SUBTOTAL(102,H2:H81)</f>
+        <v>80</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91">
+        <f>SUBTOTAL(109,G2:G81)</f>
+        <v>959231670</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ref="H91:O91" si="8">SUBTOTAL(109,H2:H81)</f>
+        <v>20</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="8"/>
+        <v>110358.82800073916</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="8"/>
+        <v>725055477</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="8"/>
+        <v>106053.27100060653</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="8"/>
+        <v>7011892</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="8"/>
+        <v>696051892</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N81"/>
+  <autoFilter ref="A1:O81"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>